--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.14_Student_Right_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.14_Student_Right_A_Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Compro Technologies Dropbox\Urja Saxena\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8707BE2-BDA3-4DDB-96FE-6E5D01D33406}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2651CF2E-1F15-47CF-A21B-1FB46F076546}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="465" windowWidth="24465" windowHeight="15435" tabRatio="898" xr2:uid="{CDDB8127-8CCC-481C-BAE9-D13AC6387C88}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="31">
   <si>
     <t>Cash</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>7/17</t>
+  </si>
+  <si>
+    <t>6/1</t>
+  </si>
+  <si>
+    <t>6/30</t>
   </si>
 </sst>
 </file>
@@ -595,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3056C779-24A2-4C13-B484-394CDF87168C}">
   <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,198 +850,206 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
+    <row r="18" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>4</v>
+      <c r="C20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7">
+        <v>250</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7">
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7">
+      <c r="C22" s="7">
         <v>250</v>
       </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="8"/>
       <c r="F22" s="7">
-        <v>280</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="7">
-        <v>250</v>
-      </c>
-      <c r="D23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7">
+        <v>150</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="F23" s="7">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="7">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7">
-        <v>50</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="7">
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="25" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="2"/>
+      <c r="C27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="A32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>4</v>
+      <c r="A33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8">
+        <v>1405</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1582,17 +1596,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A31:F31"/>
     <mergeCell ref="A70:F70"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A52:F52"/>
     <mergeCell ref="A58:F58"/>
     <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
